--- a/Day 10/Attrition Hypothesis.xlsx
+++ b/Day 10/Attrition Hypothesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\AIML\Day 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA42CB-C60E-4772-A706-C95F60C1140E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09C0764-42BE-4202-851B-647766298BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E4CC759-BD6F-4E73-A488-C20E564EC7F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>count</t>
   </si>
@@ -210,12 +210,19 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>D.F</t>
+  </si>
+  <si>
+    <t>1) Average TotalWorkingYears is more 
+than the attrition employees but this is not the reason why attrition is NO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +276,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -303,12 +326,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,28 +861,169 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,182 +1032,44 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1362,7 +1388,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:L31"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1390,1163 +1416,1190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="47"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33"/>
       <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="56" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="57" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="59" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="38" t="s">
+      <c r="Q2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="57" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="36" t="s">
         <v>44</v>
       </c>
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="38">
         <v>4410</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="50">
         <v>36.923809523809503</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="72">
         <v>9.1333012710111792</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="64">
+      <c r="F3" s="87">
         <v>101</v>
       </c>
-      <c r="G3" s="80">
+      <c r="G3" s="88">
         <v>32.475247524752398</v>
       </c>
-      <c r="H3" s="92">
-        <f>(G3-C3)/(D3/SQRT(F3))</f>
+      <c r="H3" s="89">
+        <f t="shared" ref="H3:H15" si="0">(G3-C3)/(D3/SQRT(F3))</f>
         <v>-4.8949983644215314</v>
       </c>
-      <c r="I3" s="65">
-        <f>F3-1</f>
+      <c r="I3" s="90">
+        <f t="shared" ref="I3:I15" si="1">F3-1</f>
         <v>100</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="90">
         <v>1.98</v>
       </c>
-      <c r="K3" s="65">
+      <c r="K3" s="90">
         <f>-J3</f>
         <v>-1.98</v>
       </c>
-      <c r="L3" s="66" t="str">
+      <c r="L3" s="39" t="str">
         <f>IF((AND(H3&lt;J3,H3&gt;K3)),"ACCEPTED","REJECTED")</f>
         <v>REJECTED</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="73">
+      <c r="N3" s="45">
         <v>1001</v>
       </c>
-      <c r="O3" s="83">
+      <c r="O3" s="53">
         <v>37.480519480519398</v>
       </c>
-      <c r="P3" s="95">
-        <f>(O3-C3)/(D3/SQRT(N3))</f>
+      <c r="P3" s="65">
+        <f t="shared" ref="P3:P15" si="2">(O3-C3)/(D3/SQRT(N3))</f>
         <v>1.9284937864342213</v>
       </c>
-      <c r="Q3" s="74">
-        <f>N3-1</f>
+      <c r="Q3" s="62">
+        <f t="shared" ref="Q3:Q15" si="3">N3-1</f>
         <v>1000</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="62">
         <v>1.96</v>
       </c>
-      <c r="S3" s="74">
+      <c r="S3" s="62">
         <f>-R3</f>
         <v>-1.96</v>
       </c>
-      <c r="T3" s="75" t="str">
+      <c r="T3" s="46" t="str">
         <f>IF((AND(P3&lt;R3,P3&gt;S3)),"ACCEPTED","REJECTED")</f>
         <v>ACCEPTED</v>
       </c>
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="40">
         <v>4410</v>
       </c>
-      <c r="C4" s="88">
+      <c r="C4" s="51">
         <v>9.1925170068027207</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="73">
         <v>8.1050255189052596</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="67">
+      <c r="F4" s="91">
         <v>101</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="92">
         <v>9.8910891089108901</v>
       </c>
       <c r="H4" s="93">
-        <f>(G4-C4)/(D4/SQRT(F4))</f>
+        <f t="shared" si="0"/>
         <v>0.86619872105230933</v>
       </c>
-      <c r="I4" s="58">
-        <f>F4-1</f>
+      <c r="I4" s="94">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="94">
         <v>1.98</v>
       </c>
-      <c r="K4" s="58">
-        <f t="shared" ref="K4:K15" si="0">-J4</f>
+      <c r="K4" s="94">
+        <f t="shared" ref="K4:K15" si="4">-J4</f>
         <v>-1.98</v>
       </c>
-      <c r="L4" s="68" t="str">
-        <f t="shared" ref="L4:L15" si="1">IF((AND(H4&lt;J4,H4&gt;K4)),"ACCEPTED","REJECTED")</f>
+      <c r="L4" s="41" t="str">
+        <f t="shared" ref="L4:L15" si="5">IF((AND(H4&lt;J4,H4&gt;K4)),"ACCEPTED","REJECTED")</f>
         <v>ACCEPTED</v>
       </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="76">
+      <c r="N4" s="47">
         <v>1001</v>
       </c>
-      <c r="O4" s="84">
+      <c r="O4" s="54">
         <v>9.0449550449550404</v>
       </c>
-      <c r="P4" s="96">
-        <f>(O4-C4)/(D4/SQRT(N4))</f>
+      <c r="P4" s="66">
+        <f t="shared" si="2"/>
         <v>-0.57601934997050719</v>
       </c>
-      <c r="Q4" s="60">
-        <f>N4-1</f>
+      <c r="Q4" s="63">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="R4" s="60">
+      <c r="R4" s="63">
         <v>1.96</v>
       </c>
-      <c r="S4" s="60">
-        <f t="shared" ref="S4:S15" si="2">-R4</f>
+      <c r="S4" s="63">
+        <f t="shared" ref="S4:S15" si="6">-R4</f>
         <v>-1.96</v>
       </c>
-      <c r="T4" s="68" t="str">
-        <f t="shared" ref="T4:T15" si="3">IF((AND(P4&lt;R4,P4&gt;S4)),"ACCEPTED","REJECTED")</f>
+      <c r="T4" s="41" t="str">
+        <f t="shared" ref="T4:T15" si="7">IF((AND(P4&lt;R4,P4&gt;S4)),"ACCEPTED","REJECTED")</f>
         <v>ACCEPTED</v>
       </c>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="40">
         <v>4410</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="51">
         <v>2.9129251700680201</v>
       </c>
-      <c r="D5" s="89">
+      <c r="D5" s="73">
         <v>1.0239326286269601</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="67">
+      <c r="F5" s="91">
         <v>101</v>
       </c>
-      <c r="G5" s="81">
+      <c r="G5" s="92">
         <v>2.8316831683168302</v>
       </c>
       <c r="H5" s="93">
-        <f>(G5-C5)/(D5/SQRT(F5))</f>
+        <f t="shared" si="0"/>
         <v>-0.79738841207276501</v>
       </c>
-      <c r="I5" s="58">
-        <f>F5-1</f>
+      <c r="I5" s="94">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="94">
         <v>1.98</v>
       </c>
-      <c r="K5" s="58">
+      <c r="K5" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L5" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="47">
+        <v>1001</v>
+      </c>
+      <c r="O5" s="54">
+        <v>2.9420579420579398</v>
+      </c>
+      <c r="P5" s="66">
+        <f t="shared" si="2"/>
+        <v>0.90017607518901144</v>
+      </c>
+      <c r="Q5" s="63">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R5" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="S5" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T5" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="40">
+        <v>4410</v>
+      </c>
+      <c r="C6" s="51">
+        <v>2.0639455782312899</v>
+      </c>
+      <c r="D6" s="73">
+        <v>1.1066888067465801</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="91">
+        <v>101</v>
+      </c>
+      <c r="G6" s="92">
+        <v>2.1089108910891001</v>
+      </c>
+      <c r="H6" s="93">
         <f t="shared" si="0"/>
+        <v>0.40833141053830158</v>
+      </c>
+      <c r="I6" s="94">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J6" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K6" s="94">
+        <f t="shared" si="4"/>
         <v>-1.98</v>
       </c>
-      <c r="L5" s="68" t="str">
+      <c r="L6" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="47">
+        <v>1001</v>
+      </c>
+      <c r="O6" s="54">
+        <v>2.0659340659340599</v>
+      </c>
+      <c r="P6" s="66">
+        <f t="shared" si="2"/>
+        <v>5.6847900612442714E-2</v>
+      </c>
+      <c r="Q6" s="63">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R6" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="S6" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T6" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="40">
+        <v>4410</v>
+      </c>
+      <c r="C7" s="51">
+        <v>65029.312925170001</v>
+      </c>
+      <c r="D7" s="73">
+        <v>47068.888559473402</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="91">
+        <v>101</v>
+      </c>
+      <c r="G7" s="92">
+        <v>59821.7821782178</v>
+      </c>
+      <c r="H7" s="93">
+        <f t="shared" si="0"/>
+        <v>-1.111881710015417</v>
+      </c>
+      <c r="I7" s="94">
         <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K7" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L7" s="41" t="str">
+        <f t="shared" si="5"/>
         <v>ACCEPTED</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="76">
+      <c r="M7" s="2"/>
+      <c r="N7" s="47">
         <v>1001</v>
       </c>
-      <c r="O5" s="84">
-        <v>2.9420579420579398</v>
-      </c>
-      <c r="P5" s="96">
-        <f>(O5-C5)/(D5/SQRT(N5))</f>
-        <v>0.90017607518901144</v>
-      </c>
-      <c r="Q5" s="60">
-        <f>N5-1</f>
+      <c r="O7" s="54">
+        <v>66205.484515484495</v>
+      </c>
+      <c r="P7" s="66">
+        <f t="shared" si="2"/>
+        <v>0.79059448488065898</v>
+      </c>
+      <c r="Q7" s="63">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="R5" s="60">
+      <c r="R7" s="63">
         <v>1.96</v>
       </c>
-      <c r="S5" s="60">
+      <c r="S7" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T7" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="40">
+        <v>4391</v>
+      </c>
+      <c r="C8" s="51">
+        <v>2.6948303347756699</v>
+      </c>
+      <c r="D8" s="73">
+        <v>2.49888688880714</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="91">
+        <v>101</v>
+      </c>
+      <c r="G8" s="92">
+        <v>2.9900990099009901</v>
+      </c>
+      <c r="H8" s="93">
+        <f t="shared" si="0"/>
+        <v>1.1874941091227758</v>
+      </c>
+      <c r="I8" s="94">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J8" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K8" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L8" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="47">
+        <v>994</v>
+      </c>
+      <c r="O8" s="54">
+        <v>2.6629778672032098</v>
+      </c>
+      <c r="P8" s="66">
         <f t="shared" si="2"/>
+        <v>-0.40187378389184697</v>
+      </c>
+      <c r="Q8" s="63">
+        <f t="shared" si="3"/>
+        <v>993</v>
+      </c>
+      <c r="R8" s="63">
+        <v>1.98</v>
+      </c>
+      <c r="S8" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.98</v>
+      </c>
+      <c r="T8" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="40">
+        <v>4410</v>
+      </c>
+      <c r="C9" s="51">
+        <v>15.2095238095238</v>
+      </c>
+      <c r="D9" s="73">
+        <v>3.65910751629835</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="91">
+        <v>101</v>
+      </c>
+      <c r="G9" s="92">
+        <v>15.465346534653399</v>
+      </c>
+      <c r="H9" s="93">
+        <f t="shared" si="0"/>
+        <v>0.7026266807293895</v>
+      </c>
+      <c r="I9" s="94">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J9" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K9" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L9" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="47">
+        <v>1001</v>
+      </c>
+      <c r="O9" s="54">
+        <v>15.139860139860099</v>
+      </c>
+      <c r="P9" s="66">
+        <f t="shared" si="2"/>
+        <v>-0.60234903109861904</v>
+      </c>
+      <c r="Q9" s="63">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R9" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="S9" s="63">
+        <f t="shared" si="6"/>
         <v>-1.96</v>
       </c>
-      <c r="T5" s="68" t="str">
+      <c r="T9" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="40">
+        <v>4410</v>
+      </c>
+      <c r="C10" s="51">
+        <v>0.79387755102040802</v>
+      </c>
+      <c r="D10" s="73">
+        <v>0.85188338752280501</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="91">
+        <v>101</v>
+      </c>
+      <c r="G10" s="92">
+        <v>0.81188118811881105</v>
+      </c>
+      <c r="H10" s="93">
+        <f t="shared" si="0"/>
+        <v>0.2123932878805018</v>
+      </c>
+      <c r="I10" s="94">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K10" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L10" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="47">
+        <v>1001</v>
+      </c>
+      <c r="O10" s="54">
+        <v>0.78421578421578397</v>
+      </c>
+      <c r="P10" s="66">
+        <f t="shared" si="2"/>
+        <v>-0.35883387972068492</v>
+      </c>
+      <c r="Q10" s="63">
         <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R10" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="S10" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T10" s="41" t="str">
+        <f t="shared" si="7"/>
         <v>ACCEPTED</v>
       </c>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="62">
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="40">
+        <v>4401</v>
+      </c>
+      <c r="C11" s="51">
+        <v>11.279936378095799</v>
+      </c>
+      <c r="D11" s="73">
+        <v>7.7822221409116796</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="91">
+        <v>100</v>
+      </c>
+      <c r="G11" s="92">
+        <v>7.71</v>
+      </c>
+      <c r="H11" s="93">
+        <f t="shared" si="0"/>
+        <v>-4.5872969358307021</v>
+      </c>
+      <c r="I11" s="94">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="J11" s="94">
+        <v>1.99</v>
+      </c>
+      <c r="K11" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.99</v>
+      </c>
+      <c r="L11" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>REJECTED</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="47">
+        <v>998</v>
+      </c>
+      <c r="O11" s="54">
+        <v>11.8867735470941</v>
+      </c>
+      <c r="P11" s="66">
+        <f t="shared" si="2"/>
+        <v>2.4633936684068702</v>
+      </c>
+      <c r="Q11" s="63">
+        <f t="shared" si="3"/>
+        <v>997</v>
+      </c>
+      <c r="R11" s="63">
+        <v>1.98</v>
+      </c>
+      <c r="S11" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.98</v>
+      </c>
+      <c r="T11" s="42" t="str">
+        <f t="shared" si="7"/>
+        <v>REJECTED</v>
+      </c>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="40">
         <v>4410</v>
       </c>
-      <c r="C6" s="88">
-        <v>2.0639455782312899</v>
-      </c>
-      <c r="D6" s="89">
-        <v>1.1066888067465801</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="67">
+      <c r="C12" s="51">
+        <v>2.7993197278911501</v>
+      </c>
+      <c r="D12" s="73">
+        <v>1.2889781697042499</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="91">
         <v>101</v>
       </c>
-      <c r="G6" s="81">
-        <v>2.1089108910891001</v>
-      </c>
-      <c r="H6" s="93">
-        <f>(G6-C6)/(D6/SQRT(F6))</f>
-        <v>0.40833141053830158</v>
-      </c>
-      <c r="I6" s="58">
-        <f>F6-1</f>
+      <c r="G12" s="92">
+        <v>2.7425742574257401</v>
+      </c>
+      <c r="H12" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.44243179104438107</v>
+      </c>
+      <c r="I12" s="94">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J12" s="94">
         <v>1.98</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K12" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L12" s="41" t="str">
+        <f t="shared" si="5"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="47">
+        <v>1001</v>
+      </c>
+      <c r="O12" s="54">
+        <v>2.8451548451548399</v>
+      </c>
+      <c r="P12" s="66">
+        <f t="shared" si="2"/>
+        <v>1.1250448173397436</v>
+      </c>
+      <c r="Q12" s="63">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R12" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="S12" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T12" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="40">
+        <v>4410</v>
+      </c>
+      <c r="C13" s="51">
+        <v>7.0081632653061199</v>
+      </c>
+      <c r="D13" s="73">
+        <v>6.12513544496767</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="91">
+        <v>101</v>
+      </c>
+      <c r="G13" s="92">
+        <v>4.8910891089108901</v>
+      </c>
+      <c r="H13" s="93">
         <f t="shared" si="0"/>
+        <v>-3.4736100358306108</v>
+      </c>
+      <c r="I13" s="94">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K13" s="94">
+        <f t="shared" si="4"/>
         <v>-1.98</v>
       </c>
-      <c r="L6" s="68" t="str">
+      <c r="L13" s="42" t="str">
+        <f t="shared" si="5"/>
+        <v>REJECTED</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="47">
+        <v>1001</v>
+      </c>
+      <c r="O13" s="54">
+        <v>7.33266733266733</v>
+      </c>
+      <c r="P13" s="66">
+        <f t="shared" si="2"/>
+        <v>1.6761832123527418</v>
+      </c>
+      <c r="Q13" s="63">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R13" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="S13" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T13" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="40">
+        <v>4410</v>
+      </c>
+      <c r="C14" s="51">
+        <v>2.1877551020408101</v>
+      </c>
+      <c r="D14" s="73">
+        <v>3.2216993206893201</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="91">
+        <v>101</v>
+      </c>
+      <c r="G14" s="92">
+        <v>1.9405940594059401</v>
+      </c>
+      <c r="H14" s="93">
+        <f t="shared" si="0"/>
+        <v>-0.77100234677875956</v>
+      </c>
+      <c r="I14" s="94">
         <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="94">
+        <v>1.98</v>
+      </c>
+      <c r="K14" s="94">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L14" s="41" t="str">
+        <f t="shared" si="5"/>
         <v>ACCEPTED</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="76">
+      <c r="M14" s="2"/>
+      <c r="N14" s="47">
         <v>1001</v>
       </c>
-      <c r="O6" s="84">
-        <v>2.0659340659340599</v>
-      </c>
-      <c r="P6" s="96">
-        <f>(O6-C6)/(D6/SQRT(N6))</f>
-        <v>5.6847900612442714E-2</v>
-      </c>
-      <c r="Q6" s="60">
-        <f>N6-1</f>
+      <c r="O14" s="54">
+        <v>2.2327672327672299</v>
+      </c>
+      <c r="P14" s="66">
+        <f t="shared" si="2"/>
+        <v>0.44204003509013162</v>
+      </c>
+      <c r="Q14" s="63">
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="R6" s="60">
+      <c r="R14" s="63">
         <v>1.96</v>
       </c>
-      <c r="S6" s="60">
+      <c r="S14" s="63">
+        <f t="shared" si="6"/>
+        <v>-1.96</v>
+      </c>
+      <c r="T14" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>ACCEPTED</v>
+      </c>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="43">
+        <v>4410</v>
+      </c>
+      <c r="C15" s="52">
+        <v>4.1231292517006803</v>
+      </c>
+      <c r="D15" s="75">
+        <v>3.5673267440708001</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="95">
+        <v>101</v>
+      </c>
+      <c r="G15" s="96">
+        <v>2.75247524752475</v>
+      </c>
+      <c r="H15" s="97">
+        <f t="shared" si="0"/>
+        <v>-3.8614075047805669</v>
+      </c>
+      <c r="I15" s="98">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="98">
+        <v>1.98</v>
+      </c>
+      <c r="K15" s="98">
+        <f t="shared" si="4"/>
+        <v>-1.98</v>
+      </c>
+      <c r="L15" s="44" t="str">
+        <f t="shared" si="5"/>
+        <v>REJECTED</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="48">
+        <v>1001</v>
+      </c>
+      <c r="O15" s="55">
+        <v>4.3336663336663301</v>
+      </c>
+      <c r="P15" s="67">
         <f t="shared" si="2"/>
+        <v>1.8672512048948378</v>
+      </c>
+      <c r="Q15" s="64">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R15" s="64">
+        <v>1.96</v>
+      </c>
+      <c r="S15" s="64">
+        <f t="shared" si="6"/>
         <v>-1.96</v>
       </c>
-      <c r="T6" s="68" t="str">
-        <f t="shared" si="3"/>
+      <c r="T15" s="49" t="str">
+        <f t="shared" si="7"/>
         <v>ACCEPTED</v>
       </c>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="62">
-        <v>4410</v>
-      </c>
-      <c r="C7" s="88">
-        <v>65029.312925170001</v>
-      </c>
-      <c r="D7" s="89">
-        <v>47068.888559473402</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="67">
-        <v>101</v>
-      </c>
-      <c r="G7" s="81">
-        <v>59821.7821782178</v>
-      </c>
-      <c r="H7" s="93">
-        <f>(G7-C7)/(D7/SQRT(F7))</f>
-        <v>-1.111881710015417</v>
-      </c>
-      <c r="I7" s="58">
-        <f>F7-1</f>
-        <v>100</v>
-      </c>
-      <c r="J7" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K7" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L7" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="76">
-        <v>1001</v>
-      </c>
-      <c r="O7" s="84">
-        <v>66205.484515484495</v>
-      </c>
-      <c r="P7" s="96">
-        <f>(O7-C7)/(D7/SQRT(N7))</f>
-        <v>0.79059448488065898</v>
-      </c>
-      <c r="Q7" s="60">
-        <f>N7-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R7" s="60">
-        <v>1.96</v>
-      </c>
-      <c r="S7" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T7" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="62">
-        <v>4391</v>
-      </c>
-      <c r="C8" s="88">
-        <v>2.6948303347756699</v>
-      </c>
-      <c r="D8" s="89">
-        <v>2.49888688880714</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="67">
-        <v>101</v>
-      </c>
-      <c r="G8" s="81">
-        <v>2.9900990099009901</v>
-      </c>
-      <c r="H8" s="93">
-        <f>(G8-C8)/(D8/SQRT(F8))</f>
-        <v>1.1874941091227758</v>
-      </c>
-      <c r="I8" s="58">
-        <f>F8-1</f>
-        <v>100</v>
-      </c>
-      <c r="J8" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K8" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L8" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="76">
-        <v>994</v>
-      </c>
-      <c r="O8" s="84">
-        <v>2.6629778672032098</v>
-      </c>
-      <c r="P8" s="96">
-        <f>(O8-C8)/(D8/SQRT(N8))</f>
-        <v>-0.40187378389184697</v>
-      </c>
-      <c r="Q8" s="60">
-        <f>N8-1</f>
-        <v>993</v>
-      </c>
-      <c r="R8" s="60">
-        <v>1.98</v>
-      </c>
-      <c r="S8" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.98</v>
-      </c>
-      <c r="T8" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="62">
-        <v>4410</v>
-      </c>
-      <c r="C9" s="88">
-        <v>15.2095238095238</v>
-      </c>
-      <c r="D9" s="89">
-        <v>3.65910751629835</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="67">
-        <v>101</v>
-      </c>
-      <c r="G9" s="81">
-        <v>15.465346534653399</v>
-      </c>
-      <c r="H9" s="93">
-        <f>(G9-C9)/(D9/SQRT(F9))</f>
-        <v>0.7026266807293895</v>
-      </c>
-      <c r="I9" s="58">
-        <f>F9-1</f>
-        <v>100</v>
-      </c>
-      <c r="J9" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K9" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L9" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="76">
-        <v>1001</v>
-      </c>
-      <c r="O9" s="84">
-        <v>15.139860139860099</v>
-      </c>
-      <c r="P9" s="96">
-        <f>(O9-C9)/(D9/SQRT(N9))</f>
-        <v>-0.60234903109861904</v>
-      </c>
-      <c r="Q9" s="60">
-        <f>N9-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R9" s="60">
-        <v>1.96</v>
-      </c>
-      <c r="S9" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T9" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="62">
-        <v>4410</v>
-      </c>
-      <c r="C10" s="88">
-        <v>0.79387755102040802</v>
-      </c>
-      <c r="D10" s="89">
-        <v>0.85188338752280501</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="67">
-        <v>101</v>
-      </c>
-      <c r="G10" s="81">
-        <v>0.81188118811881105</v>
-      </c>
-      <c r="H10" s="93">
-        <f>(G10-C10)/(D10/SQRT(F10))</f>
-        <v>0.2123932878805018</v>
-      </c>
-      <c r="I10" s="58">
-        <f>F10-1</f>
-        <v>100</v>
-      </c>
-      <c r="J10" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K10" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L10" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="76">
-        <v>1001</v>
-      </c>
-      <c r="O10" s="84">
-        <v>0.78421578421578397</v>
-      </c>
-      <c r="P10" s="96">
-        <f>(O10-C10)/(D10/SQRT(N10))</f>
-        <v>-0.35883387972068492</v>
-      </c>
-      <c r="Q10" s="60">
-        <f>N10-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R10" s="60">
-        <v>1.96</v>
-      </c>
-      <c r="S10" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T10" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="62">
-        <v>4401</v>
-      </c>
-      <c r="C11" s="88">
-        <v>11.279936378095799</v>
-      </c>
-      <c r="D11" s="89">
-        <v>7.7822221409116796</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="67">
-        <v>100</v>
-      </c>
-      <c r="G11" s="81">
-        <v>7.71</v>
-      </c>
-      <c r="H11" s="93">
-        <f>(G11-C11)/(D11/SQRT(F11))</f>
-        <v>-4.5872969358307021</v>
-      </c>
-      <c r="I11" s="58">
-        <f>F11-1</f>
-        <v>99</v>
-      </c>
-      <c r="J11" s="58">
-        <v>1.99</v>
-      </c>
-      <c r="K11" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.99</v>
-      </c>
-      <c r="L11" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>REJECTED</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="76">
-        <v>998</v>
-      </c>
-      <c r="O11" s="84">
-        <v>11.8867735470941</v>
-      </c>
-      <c r="P11" s="96">
-        <f>(O11-C11)/(D11/SQRT(N11))</f>
-        <v>2.4633936684068702</v>
-      </c>
-      <c r="Q11" s="60">
-        <f>N11-1</f>
-        <v>997</v>
-      </c>
-      <c r="R11" s="60">
-        <v>1.98</v>
-      </c>
-      <c r="S11" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.98</v>
-      </c>
-      <c r="T11" s="69" t="str">
-        <f t="shared" si="3"/>
-        <v>REJECTED</v>
-      </c>
-      <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="62">
-        <v>4410</v>
-      </c>
-      <c r="C12" s="88">
-        <v>2.7993197278911501</v>
-      </c>
-      <c r="D12" s="89">
-        <v>1.2889781697042499</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="67">
-        <v>101</v>
-      </c>
-      <c r="G12" s="81">
-        <v>2.7425742574257401</v>
-      </c>
-      <c r="H12" s="93">
-        <f>(G12-C12)/(D12/SQRT(F12))</f>
-        <v>-0.44243179104438107</v>
-      </c>
-      <c r="I12" s="58">
-        <f>F12-1</f>
-        <v>100</v>
-      </c>
-      <c r="J12" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K12" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L12" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="76">
-        <v>1001</v>
-      </c>
-      <c r="O12" s="84">
-        <v>2.8451548451548399</v>
-      </c>
-      <c r="P12" s="96">
-        <f>(O12-C12)/(D12/SQRT(N12))</f>
-        <v>1.1250448173397436</v>
-      </c>
-      <c r="Q12" s="60">
-        <f>N12-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R12" s="60">
-        <v>1.96</v>
-      </c>
-      <c r="S12" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T12" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="62">
-        <v>4410</v>
-      </c>
-      <c r="C13" s="88">
-        <v>7.0081632653061199</v>
-      </c>
-      <c r="D13" s="89">
-        <v>6.12513544496767</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="67">
-        <v>101</v>
-      </c>
-      <c r="G13" s="81">
-        <v>4.8910891089108901</v>
-      </c>
-      <c r="H13" s="93">
-        <f>(G13-C13)/(D13/SQRT(F13))</f>
-        <v>-3.4736100358306108</v>
-      </c>
-      <c r="I13" s="58">
-        <f>F13-1</f>
-        <v>100</v>
-      </c>
-      <c r="J13" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K13" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L13" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>REJECTED</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="76">
-        <v>1001</v>
-      </c>
-      <c r="O13" s="84">
-        <v>7.33266733266733</v>
-      </c>
-      <c r="P13" s="96">
-        <f>(O13-C13)/(D13/SQRT(N13))</f>
-        <v>1.6761832123527418</v>
-      </c>
-      <c r="Q13" s="60">
-        <f>N13-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R13" s="60">
-        <v>1.96</v>
-      </c>
-      <c r="S13" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T13" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="62">
-        <v>4410</v>
-      </c>
-      <c r="C14" s="88">
-        <v>2.1877551020408101</v>
-      </c>
-      <c r="D14" s="89">
-        <v>3.2216993206893201</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="67">
-        <v>101</v>
-      </c>
-      <c r="G14" s="81">
-        <v>1.9405940594059401</v>
-      </c>
-      <c r="H14" s="93">
-        <f>(G14-C14)/(D14/SQRT(F14))</f>
-        <v>-0.77100234677875956</v>
-      </c>
-      <c r="I14" s="58">
-        <f>F14-1</f>
-        <v>100</v>
-      </c>
-      <c r="J14" s="58">
-        <v>1.98</v>
-      </c>
-      <c r="K14" s="58">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L14" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="76">
-        <v>1001</v>
-      </c>
-      <c r="O14" s="84">
-        <v>2.2327672327672299</v>
-      </c>
-      <c r="P14" s="96">
-        <f>(O14-C14)/(D14/SQRT(N14))</f>
-        <v>0.44204003509013162</v>
-      </c>
-      <c r="Q14" s="60">
-        <f>N14-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R14" s="60">
-        <v>1.96</v>
-      </c>
-      <c r="S14" s="60">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T14" s="68" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="63">
-        <v>4410</v>
-      </c>
-      <c r="C15" s="90">
-        <v>4.1231292517006803</v>
-      </c>
-      <c r="D15" s="91">
-        <v>3.5673267440708001</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="70">
-        <v>101</v>
-      </c>
-      <c r="G15" s="82">
-        <v>2.75247524752475</v>
-      </c>
-      <c r="H15" s="94">
-        <f>(G15-C15)/(D15/SQRT(F15))</f>
-        <v>-3.8614075047805669</v>
-      </c>
-      <c r="I15" s="71">
-        <f>F15-1</f>
-        <v>100</v>
-      </c>
-      <c r="J15" s="71">
-        <v>1.98</v>
-      </c>
-      <c r="K15" s="71">
-        <f t="shared" si="0"/>
-        <v>-1.98</v>
-      </c>
-      <c r="L15" s="72" t="str">
-        <f t="shared" si="1"/>
-        <v>REJECTED</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="77">
-        <v>1001</v>
-      </c>
-      <c r="O15" s="85">
-        <v>4.3336663336663301</v>
-      </c>
-      <c r="P15" s="97">
-        <f>(O15-C15)/(D15/SQRT(N15))</f>
-        <v>1.8672512048948378</v>
-      </c>
-      <c r="Q15" s="78">
-        <f>N15-1</f>
-        <v>1000</v>
-      </c>
-      <c r="R15" s="78">
-        <v>1.96</v>
-      </c>
-      <c r="S15" s="78">
-        <f t="shared" si="2"/>
-        <v>-1.96</v>
-      </c>
-      <c r="T15" s="79" t="str">
-        <f t="shared" si="3"/>
-        <v>ACCEPTED</v>
-      </c>
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="77">
         <f>MAX(B3:B15)</f>
         <v>4410</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="3"/>
       <c r="M16" s="3"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="77">
         <f>MAX(N3:N15)</f>
         <v>1001</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="98" t="s">
+      <c r="F17" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="3"/>
+      <c r="O17" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="77">
         <f>MAX(F3:F15)</f>
         <v>101</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="3"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="80">
         <v>0.05</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="3"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="3"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E21" s="3"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="3"/>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="3"/>
       <c r="U22" s="3"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="F17:L31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="O17:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
